--- a/data/print_templates/C__contact_label__shipment.xlsx
+++ b/data/print_templates/C__contact_label__shipment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/Desktop/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/asf-wms/data/print_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD283E5-7D8A-5140-B425-3EEEB91CD1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE162B4-A7FB-354E-B9CB-0112684A6F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D41FDF60-E254-7C4C-BFC3-DDF9FE3B5742}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$E$22</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -121,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -130,19 +130,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </left>
@@ -178,13 +165,92 @@
         <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </right>
       <top style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -192,17 +258,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,26 +628,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF51C3FB-7A83-BF41-B717-28B03D752EA9}">
-  <dimension ref="A2:D15"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -573,107 +664,148 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B19:B21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="11" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>